--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Itga2b</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>Itga2b</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H2">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I2">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J2">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N2">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O2">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P2">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q2">
-        <v>2.39327388268625</v>
+        <v>1.127813705865</v>
       </c>
       <c r="R2">
-        <v>9.573095530745</v>
+        <v>4.51125482346</v>
       </c>
       <c r="S2">
-        <v>0.08693055489389989</v>
+        <v>0.1158179950938788</v>
       </c>
       <c r="T2">
-        <v>0.05643230291976024</v>
+        <v>0.07440126217416712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H3">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I3">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J3">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O3">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P3">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q3">
-        <v>4.970786301811001</v>
+        <v>1.62948780093</v>
       </c>
       <c r="R3">
-        <v>29.824717810866</v>
+        <v>9.77692680558</v>
       </c>
       <c r="S3">
-        <v>0.1805531805621912</v>
+        <v>0.1673361559202726</v>
       </c>
       <c r="T3">
-        <v>0.175813299323482</v>
+        <v>0.1612446476614002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H4">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I4">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J4">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N4">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O4">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P4">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q4">
-        <v>0.5240270581778333</v>
+        <v>0.31282382736</v>
       </c>
       <c r="R4">
-        <v>3.144162349067</v>
+        <v>1.87694296416</v>
       </c>
       <c r="S4">
-        <v>0.01903416206409544</v>
+        <v>0.03212465703690047</v>
       </c>
       <c r="T4">
-        <v>0.01853447733197808</v>
+        <v>0.03095522887251167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H5">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I5">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J5">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N5">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O5">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P5">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q5">
-        <v>3.51526472872875</v>
+        <v>0.4829254857075</v>
       </c>
       <c r="R5">
-        <v>14.061058914915</v>
+        <v>1.93170194283</v>
       </c>
       <c r="S5">
-        <v>0.1276844725871292</v>
+        <v>0.04959281949094817</v>
       </c>
       <c r="T5">
-        <v>0.08288833361274589</v>
+        <v>0.03185833394811712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H6">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I6">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J6">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N6">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O6">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P6">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q6">
-        <v>1.683706960281</v>
+        <v>0.433697980045</v>
       </c>
       <c r="R6">
-        <v>10.102241761686</v>
+        <v>2.60218788027</v>
       </c>
       <c r="S6">
-        <v>0.06115705410684783</v>
+        <v>0.04453752447222833</v>
       </c>
       <c r="T6">
-        <v>0.05955155941285697</v>
+        <v>0.04291623290699378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H7">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I7">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J7">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N7">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O7">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P7">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q7">
-        <v>1.517762942285167</v>
+        <v>0.12380560016</v>
       </c>
       <c r="R7">
-        <v>9.106577653711</v>
+        <v>0.7428336009600001</v>
       </c>
       <c r="S7">
-        <v>0.05512949258534342</v>
+        <v>0.01271390506903627</v>
       </c>
       <c r="T7">
-        <v>0.05368223340779148</v>
+        <v>0.01225108304886596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J8">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N8">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O8">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P8">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q8">
-        <v>0.656080740745</v>
+        <v>0.943140153942</v>
       </c>
       <c r="R8">
-        <v>3.93648444447</v>
+        <v>5.658840923652</v>
       </c>
       <c r="S8">
-        <v>0.0238307296380757</v>
+        <v>0.09685340863836768</v>
       </c>
       <c r="T8">
-        <v>0.02320512543678412</v>
+        <v>0.093327671266334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J9">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O9">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P9">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q9">
         <v>1.362667759244</v>
@@ -1013,10 +1013,10 @@
         <v>12.264009833196</v>
       </c>
       <c r="S9">
-        <v>0.04949599178935154</v>
+        <v>0.1399357420768921</v>
       </c>
       <c r="T9">
-        <v>0.07229493487191549</v>
+        <v>0.2022625292991875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J10">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N10">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O10">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P10">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q10">
-        <v>0.1436542900446667</v>
+        <v>0.261600573888</v>
       </c>
       <c r="R10">
-        <v>1.292888610402</v>
+        <v>2.354405164992</v>
       </c>
       <c r="S10">
-        <v>0.005217934828443218</v>
+        <v>0.02686441371084292</v>
       </c>
       <c r="T10">
-        <v>0.007621430442158721</v>
+        <v>0.03882970987004281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J11">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N11">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O11">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P11">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q11">
-        <v>0.963657984915</v>
+        <v>0.403848981941</v>
       </c>
       <c r="R11">
-        <v>5.781947909489999</v>
+        <v>2.423093891646</v>
       </c>
       <c r="S11">
-        <v>0.03500281516571436</v>
+        <v>0.04147225660219937</v>
       </c>
       <c r="T11">
-        <v>0.03408392142820511</v>
+        <v>0.03996254943690069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J12">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N12">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O12">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P12">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q12">
-        <v>0.461563433124</v>
+        <v>0.3626822209526667</v>
       </c>
       <c r="R12">
-        <v>4.154070898115999</v>
+        <v>3.264139988574</v>
       </c>
       <c r="S12">
-        <v>0.01676530448540514</v>
+        <v>0.03724473950661587</v>
       </c>
       <c r="T12">
-        <v>0.02448777268750384</v>
+        <v>0.05383338883898682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J13">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N13">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O13">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P13">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q13">
-        <v>0.4160723278073333</v>
+        <v>0.1035330854613333</v>
       </c>
       <c r="R13">
-        <v>3.744650950266</v>
+        <v>0.931797769152</v>
       </c>
       <c r="S13">
-        <v>0.01511293738420401</v>
+        <v>0.01063207010311876</v>
       </c>
       <c r="T13">
-        <v>0.02207428893564312</v>
+        <v>0.01536754912523657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H14">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I14">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J14">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N14">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O14">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P14">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q14">
-        <v>0.1543419567341667</v>
+        <v>0.5089284173294999</v>
       </c>
       <c r="R14">
-        <v>0.926051740405</v>
+        <v>2.035713669318</v>
       </c>
       <c r="S14">
-        <v>0.005606141461441054</v>
+        <v>0.05226312522616128</v>
       </c>
       <c r="T14">
-        <v>0.005458969062417702</v>
+        <v>0.03357373332910047</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H15">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I15">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J15">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O15">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P15">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q15">
-        <v>0.3205654354393334</v>
+        <v>0.735309957019</v>
       </c>
       <c r="R15">
-        <v>2.885088918954001</v>
+        <v>4.411859742114</v>
       </c>
       <c r="S15">
-        <v>0.01164385379548269</v>
+        <v>0.07551080870150441</v>
       </c>
       <c r="T15">
-        <v>0.01700726910140688</v>
+        <v>0.07276200219098254</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H16">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I16">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J16">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N16">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O16">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P16">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q16">
-        <v>0.03379444455811111</v>
+        <v>0.141162440688</v>
       </c>
       <c r="R16">
-        <v>0.304150001023</v>
+        <v>0.8469746441279999</v>
       </c>
       <c r="S16">
-        <v>0.001227510916749041</v>
+        <v>0.01449632220110627</v>
       </c>
       <c r="T16">
-        <v>0.001792929458987608</v>
+        <v>0.01396861516776563</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H17">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I17">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J17">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N17">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O17">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P17">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q17">
-        <v>0.2266990170225</v>
+        <v>0.2179211884472499</v>
       </c>
       <c r="R17">
-        <v>1.360194102135</v>
+        <v>0.8716847537889998</v>
       </c>
       <c r="S17">
-        <v>0.008234356914281805</v>
+        <v>0.02237886895963736</v>
       </c>
       <c r="T17">
-        <v>0.008018188615671325</v>
+        <v>0.014376143321059</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H18">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I18">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J18">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N18">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O18">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P18">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q18">
-        <v>0.108582067726</v>
+        <v>0.1957071681568333</v>
       </c>
       <c r="R18">
-        <v>0.9772386095339999</v>
+        <v>1.174243008941</v>
       </c>
       <c r="S18">
-        <v>0.003944011367538761</v>
+        <v>0.02009765595466014</v>
       </c>
       <c r="T18">
-        <v>0.005760709799771134</v>
+        <v>0.01936604456704037</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H19">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I19">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J19">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N19">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O19">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P19">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q19">
-        <v>0.09788035713988889</v>
+        <v>0.05586754959466666</v>
       </c>
       <c r="R19">
-        <v>0.880923214259</v>
+        <v>0.335205297568</v>
       </c>
       <c r="S19">
-        <v>0.003555294620034556</v>
+        <v>0.005737177648412664</v>
       </c>
       <c r="T19">
-        <v>0.005192941563829144</v>
+        <v>0.005528328193041078</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H20">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I20">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J20">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N20">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O20">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P20">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q20">
-        <v>0.43057041192625</v>
+        <v>0.09188295089399999</v>
       </c>
       <c r="R20">
-        <v>1.722281647705</v>
+        <v>0.551297705364</v>
       </c>
       <c r="S20">
-        <v>0.01563954928034907</v>
+        <v>0.009435688802602843</v>
       </c>
       <c r="T20">
-        <v>0.01015265327127354</v>
+        <v>0.009092203104887939</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H21">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I21">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J21">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O21">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P21">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q21">
-        <v>0.8942869100990002</v>
+        <v>0.132754325308</v>
       </c>
       <c r="R21">
-        <v>5.365721460594001</v>
+        <v>1.194788927772</v>
       </c>
       <c r="S21">
-        <v>0.03248305924853014</v>
+        <v>0.01363287191604104</v>
       </c>
       <c r="T21">
-        <v>0.03163031413139303</v>
+        <v>0.01970489536429637</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H22">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I22">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J22">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N22">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O22">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P22">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q22">
-        <v>0.09427694336716667</v>
+        <v>0.025485748416</v>
       </c>
       <c r="R22">
-        <v>0.5656616602030001</v>
+        <v>0.229371735744</v>
       </c>
       <c r="S22">
-        <v>0.003424408321963451</v>
+        <v>0.00261719490520311</v>
       </c>
       <c r="T22">
-        <v>0.003334510770957069</v>
+        <v>0.003782882438315544</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H23">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I23">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J23">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N23">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O23">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P23">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q23">
-        <v>0.6324261478087501</v>
+        <v>0.039343925737</v>
       </c>
       <c r="R23">
-        <v>2.529704591235</v>
+        <v>0.236063554422</v>
       </c>
       <c r="S23">
-        <v>0.02297152714369612</v>
+        <v>0.004040325608994896</v>
       </c>
       <c r="T23">
-        <v>0.01491231914813787</v>
+        <v>0.003893246355976486</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H24">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I24">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J24">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N24">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O24">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P24">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q24">
-        <v>0.302913262329</v>
+        <v>0.03533336223533334</v>
       </c>
       <c r="R24">
-        <v>1.817479573974</v>
+        <v>0.318000260118</v>
       </c>
       <c r="S24">
-        <v>0.01100267636290147</v>
+        <v>0.003628470866013683</v>
       </c>
       <c r="T24">
-        <v>0.010713834155272</v>
+        <v>0.005244576431695877</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H25">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I25">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J25">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,772 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N25">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O25">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P25">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q25">
-        <v>0.2730585161998333</v>
+        <v>0.01008643876266667</v>
       </c>
       <c r="R25">
-        <v>1.638351097199</v>
+        <v>0.09077794886399999</v>
       </c>
       <c r="S25">
-        <v>0.009918266565092633</v>
+        <v>0.001035801488361297</v>
       </c>
       <c r="T25">
-        <v>0.009657892278325607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.547919</v>
-      </c>
-      <c r="H26">
-        <v>1.643757</v>
-      </c>
-      <c r="I26">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J26">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.2502825</v>
-      </c>
-      <c r="N26">
-        <v>2.500565</v>
-      </c>
-      <c r="O26">
-        <v>0.1638687485091313</v>
-      </c>
-      <c r="P26">
-        <v>0.1262743888059313</v>
-      </c>
-      <c r="Q26">
-        <v>0.6850535371175001</v>
-      </c>
-      <c r="R26">
-        <v>4.110321222705</v>
-      </c>
-      <c r="S26">
-        <v>0.02488310449734691</v>
-      </c>
-      <c r="T26">
-        <v>0.02422987335624724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.547919</v>
-      </c>
-      <c r="H27">
-        <v>1.643757</v>
-      </c>
-      <c r="I27">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J27">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.596814</v>
-      </c>
-      <c r="N27">
-        <v>7.790442000000001</v>
-      </c>
-      <c r="O27">
-        <v>0.3403524085884521</v>
-      </c>
-      <c r="P27">
-        <v>0.3934044114342388</v>
-      </c>
-      <c r="Q27">
-        <v>1.422843730066</v>
-      </c>
-      <c r="R27">
-        <v>12.805593570594</v>
-      </c>
-      <c r="S27">
-        <v>0.05168175522105878</v>
-      </c>
-      <c r="T27">
-        <v>0.07548750904263217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.547919</v>
-      </c>
-      <c r="H28">
-        <v>1.643757</v>
-      </c>
-      <c r="I28">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J28">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.2737596666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.8212790000000001</v>
-      </c>
-      <c r="O28">
-        <v>0.03588041420154535</v>
-      </c>
-      <c r="P28">
-        <v>0.04147322855600494</v>
-      </c>
-      <c r="Q28">
-        <v>0.1499981228003333</v>
-      </c>
-      <c r="R28">
-        <v>1.349983105203</v>
-      </c>
-      <c r="S28">
-        <v>0.005448360984677882</v>
-      </c>
-      <c r="T28">
-        <v>0.007957995956971876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.547919</v>
-      </c>
-      <c r="H29">
-        <v>1.643757</v>
-      </c>
-      <c r="I29">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J29">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.8364275</v>
-      </c>
-      <c r="N29">
-        <v>3.672855</v>
-      </c>
-      <c r="O29">
-        <v>0.2406920645156217</v>
-      </c>
-      <c r="P29">
-        <v>0.1854730912005122</v>
-      </c>
-      <c r="Q29">
-        <v>1.0062135193725</v>
-      </c>
-      <c r="R29">
-        <v>6.037281116235</v>
-      </c>
-      <c r="S29">
-        <v>0.03654855393425209</v>
-      </c>
-      <c r="T29">
-        <v>0.03558908146993157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.547919</v>
-      </c>
-      <c r="H30">
-        <v>1.643757</v>
-      </c>
-      <c r="I30">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J30">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.8795939999999999</v>
-      </c>
-      <c r="N30">
-        <v>2.638782</v>
-      </c>
-      <c r="O30">
-        <v>0.1152843201245645</v>
-      </c>
-      <c r="P30">
-        <v>0.1332541182661091</v>
-      </c>
-      <c r="Q30">
-        <v>0.481946264886</v>
-      </c>
-      <c r="R30">
-        <v>4.337516383973999</v>
-      </c>
-      <c r="S30">
-        <v>0.01750566725299231</v>
-      </c>
-      <c r="T30">
-        <v>0.02556916283909628</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.547919</v>
-      </c>
-      <c r="H31">
-        <v>1.643757</v>
-      </c>
-      <c r="I31">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J31">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.7929023333333333</v>
-      </c>
-      <c r="N31">
-        <v>2.378707</v>
-      </c>
-      <c r="O31">
-        <v>0.103922044060685</v>
-      </c>
-      <c r="P31">
-        <v>0.1201207617372036</v>
-      </c>
-      <c r="Q31">
-        <v>0.4344462535776666</v>
-      </c>
-      <c r="R31">
-        <v>3.910016282199</v>
-      </c>
-      <c r="S31">
-        <v>0.01578033093842673</v>
-      </c>
-      <c r="T31">
-        <v>0.02304909864835299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.461005</v>
-      </c>
-      <c r="I32">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J32">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.2502825</v>
-      </c>
-      <c r="N32">
-        <v>2.500565</v>
-      </c>
-      <c r="O32">
-        <v>0.1638687485091313</v>
-      </c>
-      <c r="P32">
-        <v>0.1262743888059313</v>
-      </c>
-      <c r="Q32">
-        <v>0.1921288279708333</v>
-      </c>
-      <c r="R32">
-        <v>1.152772967825</v>
-      </c>
-      <c r="S32">
-        <v>0.006978668738018704</v>
-      </c>
-      <c r="T32">
-        <v>0.006795464759448483</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.461005</v>
-      </c>
-      <c r="I33">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J33">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.596814</v>
-      </c>
-      <c r="N33">
-        <v>7.790442000000001</v>
-      </c>
-      <c r="O33">
-        <v>0.3403524085884521</v>
-      </c>
-      <c r="P33">
-        <v>0.3934044114342388</v>
-      </c>
-      <c r="Q33">
-        <v>0.3990480793566666</v>
-      </c>
-      <c r="R33">
-        <v>3.59143271421</v>
-      </c>
-      <c r="S33">
-        <v>0.01449456797183781</v>
-      </c>
-      <c r="T33">
-        <v>0.02117108496340921</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.461005</v>
-      </c>
-      <c r="I34">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J34">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.2737596666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.8212790000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.03588041420154535</v>
-      </c>
-      <c r="P34">
-        <v>0.04147322855600494</v>
-      </c>
-      <c r="Q34">
-        <v>0.04206819171055556</v>
-      </c>
-      <c r="R34">
-        <v>0.378613725395</v>
-      </c>
-      <c r="S34">
-        <v>0.001528037085616321</v>
-      </c>
-      <c r="T34">
-        <v>0.002231884594951578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.461005</v>
-      </c>
-      <c r="I35">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J35">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.8364275</v>
-      </c>
-      <c r="N35">
-        <v>3.672855</v>
-      </c>
-      <c r="O35">
-        <v>0.2406920645156217</v>
-      </c>
-      <c r="P35">
-        <v>0.1854730912005122</v>
-      </c>
-      <c r="Q35">
-        <v>0.2822007532125</v>
-      </c>
-      <c r="R35">
-        <v>1.693204519275</v>
-      </c>
-      <c r="S35">
-        <v>0.01025033877054813</v>
-      </c>
-      <c r="T35">
-        <v>0.009981246925820426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.461005</v>
-      </c>
-      <c r="I36">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J36">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.8795939999999999</v>
-      </c>
-      <c r="N36">
-        <v>2.638782</v>
-      </c>
-      <c r="O36">
-        <v>0.1152843201245645</v>
-      </c>
-      <c r="P36">
-        <v>0.1332541182661091</v>
-      </c>
-      <c r="Q36">
-        <v>0.13516574399</v>
-      </c>
-      <c r="R36">
-        <v>1.21649169591</v>
-      </c>
-      <c r="S36">
-        <v>0.004909606548879011</v>
-      </c>
-      <c r="T36">
-        <v>0.007171079371608809</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.461005</v>
-      </c>
-      <c r="I37">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J37">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.7929023333333333</v>
-      </c>
-      <c r="N37">
-        <v>2.378707</v>
-      </c>
-      <c r="O37">
-        <v>0.103922044060685</v>
-      </c>
-      <c r="P37">
-        <v>0.1201207617372036</v>
-      </c>
-      <c r="Q37">
-        <v>0.1218439800594444</v>
-      </c>
-      <c r="R37">
-        <v>1.096595820535</v>
-      </c>
-      <c r="S37">
-        <v>0.00442572196758366</v>
-      </c>
-      <c r="T37">
-        <v>0.006464306903261232</v>
+        <v>0.001497143087094221</v>
       </c>
     </row>
   </sheetData>
